--- a/slave_base.xlsx
+++ b/slave_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panboyuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\slave_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t>造反头头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +560,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,6 +569,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -628,6 +647,9 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -657,6 +679,9 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -685,6 +710,9 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">

--- a/slave_base.xlsx
+++ b/slave_base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>laucher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发起者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,26 @@
   </si>
   <si>
     <t>threat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launcher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -591,10 +607,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -602,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -625,22 +641,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -648,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -675,112 +691,134 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E28" t="s">
         <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/slave_base.xlsx
+++ b/slave_base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>launcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错疑冷冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -597,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -605,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -613,152 +625,158 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+      <c r="I6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
